--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikrajnadar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaushikrajnadar/Downloads/AttentionMOI-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E643EEF1-6943-2B42-911C-8614D9E5F638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C670D68-4BC0-4540-ADD6-023D51F3EB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="24960" windowHeight="16720" activeTab="1" xr2:uid="{9DD30F38-7CA5-664D-B4C8-9159F34F8AE3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="25">
   <si>
     <t>DNN</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Omics Type</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>RFE</t>
+  </si>
+  <si>
+    <t>LASSO</t>
+  </si>
+  <si>
+    <t>PCA</t>
   </si>
 </sst>
 </file>
@@ -1423,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2BADBF-96B1-A546-B2C2-0D199571FC31}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2107,6 +2119,526 @@
         <v>0.96455589801064701</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.89934614851439398</v>
+      </c>
+      <c r="F27">
+        <v>0.89908669869713798</v>
+      </c>
+      <c r="G27">
+        <v>0.97579392541330201</v>
+      </c>
+      <c r="H27">
+        <v>0.89888888888888896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0.89375000000000004</v>
+      </c>
+      <c r="E28">
+        <v>0.855950812472551</v>
+      </c>
+      <c r="F28">
+        <v>0.87134951042997</v>
+      </c>
+      <c r="G28">
+        <v>0.968301435406698</v>
+      </c>
+      <c r="H28">
+        <v>0.89385078858763001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="E29">
+        <v>0.92866029946114903</v>
+      </c>
+      <c r="F29">
+        <v>0.93407223379080695</v>
+      </c>
+      <c r="G29">
+        <v>0.981279770243765</v>
+      </c>
+      <c r="H29">
+        <v>0.94013729335948404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="E30">
+        <v>0.91882092082952904</v>
+      </c>
+      <c r="F30">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="G30">
+        <v>0.97977724852899895</v>
+      </c>
+      <c r="H30">
+        <v>0.94013729335948404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0.94179894179894097</v>
+      </c>
+      <c r="E31">
+        <v>0.92061691381033395</v>
+      </c>
+      <c r="F31">
+        <v>0.92566389934512405</v>
+      </c>
+      <c r="G31">
+        <v>0.98364621275800801</v>
+      </c>
+      <c r="H31">
+        <v>0.93108246941253303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0.89375000000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.85974945533768998</v>
+      </c>
+      <c r="F32">
+        <v>0.87346867106987003</v>
+      </c>
+      <c r="G32">
+        <v>0.97234756916465204</v>
+      </c>
+      <c r="H32">
+        <v>0.89092130002685999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0.90625</v>
+      </c>
+      <c r="E33">
+        <v>0.90011791690896104</v>
+      </c>
+      <c r="F33">
+        <v>0.89144506287363401</v>
+      </c>
+      <c r="G33">
+        <v>0.97325889259813503</v>
+      </c>
+      <c r="H33">
+        <v>0.88579486589156198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="E34">
+        <v>0.91882092082952904</v>
+      </c>
+      <c r="F34">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="G34">
+        <v>0.96797247128047004</v>
+      </c>
+      <c r="H34">
+        <v>0.94013729335948404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0.92592592592592504</v>
+      </c>
+      <c r="E35">
+        <v>0.901862512413944</v>
+      </c>
+      <c r="F35">
+        <v>0.91548867609059104</v>
+      </c>
+      <c r="G35">
+        <v>0.972090688334734</v>
+      </c>
+      <c r="H35">
+        <v>0.93210516484542805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0.87830687830687804</v>
+      </c>
+      <c r="E36">
+        <v>0.83222222222222197</v>
+      </c>
+      <c r="F36">
+        <v>0.84829116377293901</v>
+      </c>
+      <c r="G36">
+        <v>0.96260740636966402</v>
+      </c>
+      <c r="H36">
+        <v>0.87093957224245799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="E37">
+        <v>0.89482577206362302</v>
+      </c>
+      <c r="F37">
+        <v>0.90738529454334904</v>
+      </c>
+      <c r="G37">
+        <v>0.97716472179942504</v>
+      </c>
+      <c r="H37">
+        <v>0.92253932014205897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="E38">
+        <v>0.894205209994683</v>
+      </c>
+      <c r="F38">
+        <v>0.89845213447697903</v>
+      </c>
+      <c r="G38">
+        <v>0.97127289883089396</v>
+      </c>
+      <c r="H38">
+        <v>0.90503314001656998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0.92063492063492003</v>
+      </c>
+      <c r="E39">
+        <v>0.90885040885040802</v>
+      </c>
+      <c r="F39">
+        <v>0.91662093162146296</v>
+      </c>
+      <c r="G39">
+        <v>0.98548204445689702</v>
+      </c>
+      <c r="H39">
+        <v>0.92864948164752004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>0.92063492063492003</v>
+      </c>
+      <c r="E40">
+        <v>0.89811709976529497</v>
+      </c>
+      <c r="F40">
+        <v>0.91148268247557995</v>
+      </c>
+      <c r="G40">
+        <v>0.980385495470253</v>
+      </c>
+      <c r="H40">
+        <v>0.92836929111795996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>0.91005291005291</v>
+      </c>
+      <c r="E41">
+        <v>0.90779366414353702</v>
+      </c>
+      <c r="F41">
+        <v>0.90746965452847805</v>
+      </c>
+      <c r="G41">
+        <v>0.97665545904548401</v>
+      </c>
+      <c r="H41">
+        <v>0.90782665545904495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0.9375</v>
+      </c>
+      <c r="E42">
+        <v>0.90525025799793601</v>
+      </c>
+      <c r="F42">
+        <v>0.91166106932034496</v>
+      </c>
+      <c r="G42">
+        <v>0.977063734214763</v>
+      </c>
+      <c r="H42">
+        <v>0.918688024408848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="E43">
+        <v>0.91700629200629202</v>
+      </c>
+      <c r="F43">
+        <v>0.90826100555164502</v>
+      </c>
+      <c r="G43">
+        <v>0.979439153439153</v>
+      </c>
+      <c r="H43">
+        <v>0.90095238095238095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>0.94179894179894097</v>
+      </c>
+      <c r="E44">
+        <v>0.91142492046106505</v>
+      </c>
+      <c r="F44">
+        <v>0.92063042084303603</v>
+      </c>
+      <c r="G44">
+        <v>0.98460353040067194</v>
+      </c>
+      <c r="H44">
+        <v>0.93122256467731301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="E45">
+        <v>0.89876508863850602</v>
+      </c>
+      <c r="F45">
+        <v>0.92045299064338504</v>
+      </c>
+      <c r="G45">
+        <v>0.98355748575698099</v>
+      </c>
+      <c r="H45">
+        <v>0.95264780050434295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0.93650793650793596</v>
+      </c>
+      <c r="E46">
+        <v>0.91867744880657298</v>
+      </c>
+      <c r="F46">
+        <v>0.92862965494544403</v>
+      </c>
+      <c r="G46">
+        <v>0.98894998599047301</v>
+      </c>
+      <c r="H46">
+        <v>0.93999719809470395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
